--- a/repairDB/repairDB.xlsx
+++ b/repairDB/repairDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\MRT DATA\TRTCrepair\repairDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF0245B-7ED3-4933-B5B7-E30BCD67EE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7F0EE-09C4-48A4-A3A9-DF1E13C04971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="5205" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>正工程師</t>
   </si>
   <si>
-    <t>周皇佑</t>
-  </si>
-  <si>
     <t>SYPEA</t>
   </si>
   <si>
@@ -846,6 +843,10 @@
   </si>
   <si>
     <t>廠本部</t>
+  </si>
+  <si>
+    <t>周皇佑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1193,7 +1194,7 @@
   <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1210,28 +1211,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" t="s">
         <v>257</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>258</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>259</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>260</v>
-      </c>
-      <c r="H1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1245,16 +1246,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
         <v>238</v>
       </c>
-      <c r="F2" t="s">
-        <v>239</v>
-      </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -1271,16 +1272,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
         <v>238</v>
       </c>
-      <c r="F3" t="s">
-        <v>239</v>
-      </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -1297,16 +1298,16 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1317,22 +1318,22 @@
         <v>1309</v>
       </c>
       <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -1343,25 +1344,25 @@
         <v>1413</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1369,22 +1370,22 @@
         <v>1626</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" t="s">
         <v>241</v>
-      </c>
-      <c r="G7" t="s">
-        <v>242</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -1395,25 +1396,25 @@
         <v>1629</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1421,25 +1422,25 @@
         <v>1666</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1447,25 +1448,25 @@
         <v>1816</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1473,25 +1474,25 @@
         <v>1827</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1499,25 +1500,25 @@
         <v>1944</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1525,25 +1526,25 @@
         <v>20185</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1551,25 +1552,25 @@
         <v>20303</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" t="s">
         <v>244</v>
       </c>
-      <c r="G14" t="s">
-        <v>245</v>
-      </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1577,25 +1578,25 @@
         <v>20433</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1603,25 +1604,25 @@
         <v>20438</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1629,25 +1630,25 @@
         <v>20486</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1655,25 +1656,25 @@
         <v>20491</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" t="s">
         <v>238</v>
       </c>
-      <c r="F18" t="s">
-        <v>239</v>
-      </c>
       <c r="G18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1681,25 +1682,25 @@
         <v>20513</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
         <v>238</v>
       </c>
-      <c r="F19" t="s">
-        <v>239</v>
-      </c>
       <c r="G19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1707,25 +1708,25 @@
         <v>20585</v>
       </c>
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" t="s">
         <v>238</v>
       </c>
-      <c r="F20" t="s">
-        <v>239</v>
-      </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1733,25 +1734,25 @@
         <v>20620</v>
       </c>
       <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1759,25 +1760,25 @@
         <v>20748</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1785,25 +1786,25 @@
         <v>21012</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1811,22 +1812,22 @@
         <v>21019</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1837,25 +1838,25 @@
         <v>21180</v>
       </c>
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" t="s">
         <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" t="s">
-        <v>241</v>
-      </c>
-      <c r="G25" t="s">
-        <v>252</v>
-      </c>
-      <c r="H25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1863,25 +1864,25 @@
         <v>21214</v>
       </c>
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1889,25 +1890,25 @@
         <v>21306</v>
       </c>
       <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1915,25 +1916,25 @@
         <v>21308</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1941,25 +1942,25 @@
         <v>21352</v>
       </c>
       <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1967,25 +1968,25 @@
         <v>21383</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1993,25 +1994,25 @@
         <v>21402</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" t="s">
         <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" t="s">
-        <v>241</v>
-      </c>
-      <c r="G31" t="s">
-        <v>252</v>
-      </c>
-      <c r="H31" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2019,25 +2020,25 @@
         <v>21414</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2045,25 +2046,25 @@
         <v>21425</v>
       </c>
       <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" t="s">
         <v>238</v>
       </c>
-      <c r="F33" t="s">
-        <v>239</v>
-      </c>
       <c r="G33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2071,25 +2072,25 @@
         <v>21509</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2097,25 +2098,25 @@
         <v>21685</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" t="s">
         <v>238</v>
       </c>
-      <c r="F35" t="s">
-        <v>239</v>
-      </c>
       <c r="G35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2123,22 +2124,22 @@
         <v>21952</v>
       </c>
       <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
         <v>2</v>
@@ -2149,25 +2150,25 @@
         <v>21959</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2175,25 +2176,25 @@
         <v>21962</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2201,25 +2202,25 @@
         <v>21995</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2227,25 +2228,25 @@
         <v>22021</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2253,25 +2254,25 @@
         <v>22119</v>
       </c>
       <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" t="s">
         <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" t="s">
-        <v>238</v>
-      </c>
-      <c r="F41" t="s">
-        <v>240</v>
-      </c>
-      <c r="G41" t="s">
-        <v>248</v>
-      </c>
-      <c r="H41" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2279,25 +2280,25 @@
         <v>22127</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2305,25 +2306,25 @@
         <v>22162</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E43" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" t="s">
         <v>238</v>
       </c>
-      <c r="F43" t="s">
-        <v>239</v>
-      </c>
       <c r="G43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2331,25 +2332,25 @@
         <v>22166</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E44" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" t="s">
         <v>238</v>
       </c>
-      <c r="F44" t="s">
-        <v>239</v>
-      </c>
       <c r="G44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2357,25 +2358,25 @@
         <v>22179</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2383,25 +2384,25 @@
         <v>22182</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" t="s">
         <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" t="s">
-        <v>244</v>
-      </c>
-      <c r="G46" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2409,25 +2410,25 @@
         <v>22194</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" t="s">
         <v>241</v>
       </c>
-      <c r="G47" t="s">
-        <v>242</v>
-      </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2435,25 +2436,25 @@
         <v>22364</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" t="s">
         <v>238</v>
       </c>
-      <c r="F48" t="s">
-        <v>239</v>
-      </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2461,25 +2462,25 @@
         <v>22509</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2487,22 +2488,22 @@
         <v>22511</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H50" t="s">
         <v>2</v>
@@ -2513,25 +2514,25 @@
         <v>22513</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2539,25 +2540,25 @@
         <v>22514</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" t="s">
         <v>241</v>
       </c>
-      <c r="G52" t="s">
-        <v>242</v>
-      </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2565,25 +2566,25 @@
         <v>22557</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E53" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" t="s">
         <v>238</v>
       </c>
-      <c r="F53" t="s">
-        <v>239</v>
-      </c>
       <c r="G53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2591,25 +2592,25 @@
         <v>22585</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" t="s">
         <v>241</v>
       </c>
-      <c r="G54" t="s">
-        <v>242</v>
-      </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2617,25 +2618,25 @@
         <v>22640</v>
       </c>
       <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" t="s">
+        <v>249</v>
+      </c>
+      <c r="H55" t="s">
         <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" t="s">
-        <v>237</v>
-      </c>
-      <c r="E55" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" t="s">
-        <v>239</v>
-      </c>
-      <c r="G55" t="s">
-        <v>250</v>
-      </c>
-      <c r="H55" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2643,25 +2644,25 @@
         <v>22651</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" t="s">
         <v>238</v>
       </c>
-      <c r="F56" t="s">
-        <v>239</v>
-      </c>
       <c r="G56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2669,25 +2670,25 @@
         <v>22652</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2695,25 +2696,25 @@
         <v>22654</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
+        <v>240</v>
+      </c>
+      <c r="G58" t="s">
         <v>241</v>
       </c>
-      <c r="G58" t="s">
-        <v>242</v>
-      </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2721,25 +2722,25 @@
         <v>22655</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2747,25 +2748,25 @@
         <v>22725</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2773,25 +2774,25 @@
         <v>22815</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2799,25 +2800,25 @@
         <v>22914</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E62" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" t="s">
         <v>238</v>
       </c>
-      <c r="F62" t="s">
-        <v>239</v>
-      </c>
       <c r="G62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2825,25 +2826,25 @@
         <v>22960</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s">
+        <v>240</v>
+      </c>
+      <c r="G63" t="s">
         <v>241</v>
       </c>
-      <c r="G63" t="s">
-        <v>242</v>
-      </c>
       <c r="H63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2851,25 +2852,25 @@
         <v>22965</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2877,25 +2878,25 @@
         <v>22966</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2903,25 +2904,25 @@
         <v>22967</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2929,25 +2930,25 @@
         <v>22969</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67" t="s">
+        <v>237</v>
+      </c>
+      <c r="F67" t="s">
         <v>238</v>
       </c>
-      <c r="F67" t="s">
-        <v>239</v>
-      </c>
       <c r="G67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2955,25 +2956,25 @@
         <v>22971</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F68" t="s">
         <v>238</v>
       </c>
-      <c r="F68" t="s">
-        <v>239</v>
-      </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2981,25 +2982,25 @@
         <v>22972</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" t="s">
         <v>238</v>
       </c>
-      <c r="F69" t="s">
-        <v>239</v>
-      </c>
       <c r="G69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3007,25 +3008,25 @@
         <v>23005</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3033,25 +3034,25 @@
         <v>23161</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3059,25 +3060,25 @@
         <v>23229</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" t="s">
+        <v>251</v>
+      </c>
+      <c r="H72" t="s">
         <v>44</v>
-      </c>
-      <c r="D72" t="s">
-        <v>237</v>
-      </c>
-      <c r="E72" t="s">
-        <v>238</v>
-      </c>
-      <c r="F72" t="s">
-        <v>241</v>
-      </c>
-      <c r="G72" t="s">
-        <v>252</v>
-      </c>
-      <c r="H72" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3085,25 +3086,25 @@
         <v>23242</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F73" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" t="s">
         <v>241</v>
       </c>
-      <c r="G73" t="s">
-        <v>242</v>
-      </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3111,25 +3112,25 @@
         <v>23317</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E74" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" t="s">
         <v>238</v>
       </c>
-      <c r="F74" t="s">
-        <v>239</v>
-      </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3137,25 +3138,25 @@
         <v>23454</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E75" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" t="s">
         <v>238</v>
       </c>
-      <c r="F75" t="s">
-        <v>239</v>
-      </c>
       <c r="G75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3163,25 +3164,25 @@
         <v>23475</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E76" t="s">
+        <v>237</v>
+      </c>
+      <c r="F76" t="s">
         <v>238</v>
       </c>
-      <c r="F76" t="s">
-        <v>239</v>
-      </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3189,25 +3190,25 @@
         <v>23497</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" t="s">
         <v>238</v>
       </c>
-      <c r="F77" t="s">
-        <v>239</v>
-      </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3215,25 +3216,25 @@
         <v>23520</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3241,25 +3242,25 @@
         <v>23666</v>
       </c>
       <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" t="s">
         <v>109</v>
       </c>
-      <c r="C79" t="s">
-        <v>110</v>
-      </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3267,25 +3268,25 @@
         <v>23724</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F80" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" t="s">
         <v>241</v>
       </c>
-      <c r="G80" t="s">
-        <v>242</v>
-      </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3293,22 +3294,22 @@
         <v>23739</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H81" t="s">
         <v>2</v>
@@ -3319,25 +3320,25 @@
         <v>23741</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3345,25 +3346,25 @@
         <v>23758</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E83" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" t="s">
         <v>238</v>
       </c>
-      <c r="F83" t="s">
-        <v>239</v>
-      </c>
       <c r="G83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3371,25 +3372,25 @@
         <v>23759</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3397,25 +3398,25 @@
         <v>23774</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3423,25 +3424,25 @@
         <v>23820</v>
       </c>
       <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" t="s">
+        <v>238</v>
+      </c>
+      <c r="G86" t="s">
+        <v>242</v>
+      </c>
+      <c r="H86" t="s">
         <v>117</v>
-      </c>
-      <c r="C86" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" t="s">
-        <v>237</v>
-      </c>
-      <c r="E86" t="s">
-        <v>238</v>
-      </c>
-      <c r="F86" t="s">
-        <v>239</v>
-      </c>
-      <c r="G86" t="s">
-        <v>243</v>
-      </c>
-      <c r="H86" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3449,25 +3450,25 @@
         <v>23914</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3475,25 +3476,25 @@
         <v>23987</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F88" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" t="s">
         <v>241</v>
       </c>
-      <c r="G88" t="s">
-        <v>242</v>
-      </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3501,25 +3502,25 @@
         <v>24054</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3527,25 +3528,25 @@
         <v>24074</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F90" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" t="s">
         <v>241</v>
       </c>
-      <c r="G90" t="s">
-        <v>242</v>
-      </c>
       <c r="H90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3553,25 +3554,25 @@
         <v>24092</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E91" t="s">
+        <v>237</v>
+      </c>
+      <c r="F91" t="s">
         <v>238</v>
       </c>
-      <c r="F91" t="s">
-        <v>239</v>
-      </c>
       <c r="G91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3579,25 +3580,25 @@
         <v>24093</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3605,25 +3606,25 @@
         <v>24147</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3631,25 +3632,25 @@
         <v>24187</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F94" t="s">
+        <v>243</v>
+      </c>
+      <c r="G94" t="s">
         <v>244</v>
       </c>
-      <c r="G94" t="s">
-        <v>245</v>
-      </c>
       <c r="H94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3657,25 +3658,25 @@
         <v>24376</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3683,25 +3684,25 @@
         <v>24407</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3709,25 +3710,25 @@
         <v>24438</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3735,25 +3736,25 @@
         <v>24439</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G98" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3761,25 +3762,25 @@
         <v>24573</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F99" t="s">
+        <v>243</v>
+      </c>
+      <c r="G99" t="s">
         <v>244</v>
       </c>
-      <c r="G99" t="s">
-        <v>245</v>
-      </c>
       <c r="H99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3787,25 +3788,25 @@
         <v>24576</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" t="s">
+        <v>237</v>
+      </c>
+      <c r="F100" t="s">
+        <v>243</v>
+      </c>
+      <c r="G100" t="s">
+        <v>244</v>
+      </c>
+      <c r="H100" t="s">
         <v>24</v>
-      </c>
-      <c r="D100" t="s">
-        <v>237</v>
-      </c>
-      <c r="E100" t="s">
-        <v>238</v>
-      </c>
-      <c r="F100" t="s">
-        <v>244</v>
-      </c>
-      <c r="G100" t="s">
-        <v>245</v>
-      </c>
-      <c r="H100" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3813,25 +3814,25 @@
         <v>24578</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3839,25 +3840,25 @@
         <v>24773</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3865,25 +3866,25 @@
         <v>24800</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3891,25 +3892,25 @@
         <v>24805</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E104" t="s">
+        <v>237</v>
+      </c>
+      <c r="F104" t="s">
         <v>238</v>
       </c>
-      <c r="F104" t="s">
-        <v>239</v>
-      </c>
       <c r="G104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3917,25 +3918,25 @@
         <v>24931</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3943,25 +3944,25 @@
         <v>25000</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F106" t="s">
+        <v>243</v>
+      </c>
+      <c r="G106" t="s">
         <v>244</v>
       </c>
-      <c r="G106" t="s">
-        <v>245</v>
-      </c>
       <c r="H106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3969,25 +3970,25 @@
         <v>25002</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3995,25 +3996,25 @@
         <v>25148</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G108" t="s">
         <v>244</v>
       </c>
-      <c r="G108" t="s">
-        <v>245</v>
-      </c>
       <c r="H108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -4021,25 +4022,25 @@
         <v>25196</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F109" t="s">
+        <v>240</v>
+      </c>
+      <c r="G109" t="s">
         <v>241</v>
       </c>
-      <c r="G109" t="s">
-        <v>242</v>
-      </c>
       <c r="H109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -4047,25 +4048,25 @@
         <v>25253</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E110" t="s">
+        <v>237</v>
+      </c>
+      <c r="F110" t="s">
         <v>238</v>
       </c>
-      <c r="F110" t="s">
-        <v>239</v>
-      </c>
       <c r="G110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -4073,25 +4074,25 @@
         <v>25256</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -4099,25 +4100,25 @@
         <v>25289</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E112" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F112" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G112" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -4125,25 +4126,25 @@
         <v>25404</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F113" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G113" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -4151,25 +4152,25 @@
         <v>25544</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -4177,25 +4178,25 @@
         <v>25723</v>
       </c>
       <c r="B115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -4203,25 +4204,25 @@
         <v>25850</v>
       </c>
       <c r="B116" t="s">
+        <v>147</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" t="s">
+        <v>237</v>
+      </c>
+      <c r="F116" t="s">
+        <v>240</v>
+      </c>
+      <c r="G116" t="s">
+        <v>246</v>
+      </c>
+      <c r="H116" t="s">
         <v>148</v>
-      </c>
-      <c r="C116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" t="s">
-        <v>237</v>
-      </c>
-      <c r="E116" t="s">
-        <v>238</v>
-      </c>
-      <c r="F116" t="s">
-        <v>241</v>
-      </c>
-      <c r="G116" t="s">
-        <v>247</v>
-      </c>
-      <c r="H116" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -4229,25 +4230,25 @@
         <v>25854</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E117" t="s">
+        <v>237</v>
+      </c>
+      <c r="F117" t="s">
         <v>238</v>
       </c>
-      <c r="F117" t="s">
-        <v>239</v>
-      </c>
       <c r="G117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -4255,25 +4256,25 @@
         <v>25881</v>
       </c>
       <c r="B118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -4281,25 +4282,25 @@
         <v>25883</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E119" t="s">
+        <v>237</v>
+      </c>
+      <c r="F119" t="s">
         <v>238</v>
       </c>
-      <c r="F119" t="s">
-        <v>239</v>
-      </c>
       <c r="G119" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -4307,25 +4308,25 @@
         <v>26143</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -4333,25 +4334,25 @@
         <v>26147</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -4359,25 +4360,25 @@
         <v>26368</v>
       </c>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E122" t="s">
+        <v>237</v>
+      </c>
+      <c r="F122" t="s">
         <v>238</v>
       </c>
-      <c r="F122" t="s">
-        <v>239</v>
-      </c>
       <c r="G122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -4385,25 +4386,25 @@
         <v>26371</v>
       </c>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D123" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E123" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -4411,25 +4412,25 @@
         <v>26375</v>
       </c>
       <c r="B124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -4437,25 +4438,25 @@
         <v>26435</v>
       </c>
       <c r="B125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E125" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -4463,25 +4464,25 @@
         <v>26524</v>
       </c>
       <c r="B126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D126" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -4489,25 +4490,25 @@
         <v>26537</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
+        <v>243</v>
+      </c>
+      <c r="G127" t="s">
         <v>244</v>
       </c>
-      <c r="G127" t="s">
-        <v>245</v>
-      </c>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -4515,25 +4516,25 @@
         <v>26553</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
+        <v>240</v>
+      </c>
+      <c r="G128" t="s">
         <v>241</v>
       </c>
-      <c r="G128" t="s">
-        <v>242</v>
-      </c>
       <c r="H128" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -4541,25 +4542,25 @@
         <v>26555</v>
       </c>
       <c r="B129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -4567,25 +4568,25 @@
         <v>26557</v>
       </c>
       <c r="B130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G130" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -4593,25 +4594,25 @@
         <v>26697</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E131" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F131" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G131" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -4619,25 +4620,25 @@
         <v>26709</v>
       </c>
       <c r="B132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G132" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4645,25 +4646,25 @@
         <v>26710</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G133" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -4671,25 +4672,25 @@
         <v>26712</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
+        <v>243</v>
+      </c>
+      <c r="G134" t="s">
         <v>244</v>
       </c>
-      <c r="G134" t="s">
-        <v>245</v>
-      </c>
       <c r="H134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -4697,25 +4698,25 @@
         <v>26836</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E135" t="s">
+        <v>237</v>
+      </c>
+      <c r="F135" t="s">
         <v>238</v>
       </c>
-      <c r="F135" t="s">
-        <v>239</v>
-      </c>
       <c r="G135" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -4723,25 +4724,25 @@
         <v>27046</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -4749,25 +4750,25 @@
         <v>27048</v>
       </c>
       <c r="B137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E137" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F137" t="s">
+        <v>240</v>
+      </c>
+      <c r="G137" t="s">
         <v>241</v>
       </c>
-      <c r="G137" t="s">
-        <v>242</v>
-      </c>
       <c r="H137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4775,25 +4776,25 @@
         <v>27050</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E138" t="s">
+        <v>237</v>
+      </c>
+      <c r="F138" t="s">
         <v>238</v>
       </c>
-      <c r="F138" t="s">
-        <v>239</v>
-      </c>
       <c r="G138" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4801,25 +4802,25 @@
         <v>27053</v>
       </c>
       <c r="B139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E139" t="s">
+        <v>237</v>
+      </c>
+      <c r="F139" t="s">
         <v>238</v>
       </c>
-      <c r="F139" t="s">
-        <v>239</v>
-      </c>
       <c r="G139" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4827,25 +4828,25 @@
         <v>27054</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E140" t="s">
+        <v>237</v>
+      </c>
+      <c r="F140" t="s">
         <v>238</v>
       </c>
-      <c r="F140" t="s">
-        <v>239</v>
-      </c>
       <c r="G140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4853,25 +4854,25 @@
         <v>27055</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E141" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4879,25 +4880,25 @@
         <v>27056</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G142" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4905,25 +4906,25 @@
         <v>27187</v>
       </c>
       <c r="B143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D143" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F143" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G143" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4931,25 +4932,25 @@
         <v>27200</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D144" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E144" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G144" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H144" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4957,25 +4958,25 @@
         <v>27201</v>
       </c>
       <c r="B145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E145" t="s">
+        <v>237</v>
+      </c>
+      <c r="F145" t="s">
         <v>238</v>
       </c>
-      <c r="F145" t="s">
-        <v>239</v>
-      </c>
       <c r="G145" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4983,25 +4984,25 @@
         <v>27203</v>
       </c>
       <c r="B146" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D146" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E146" t="s">
+        <v>237</v>
+      </c>
+      <c r="F146" t="s">
         <v>238</v>
       </c>
-      <c r="F146" t="s">
-        <v>239</v>
-      </c>
       <c r="G146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H146" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -5009,25 +5010,25 @@
         <v>27207</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E147" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F147" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G147" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -5035,25 +5036,25 @@
         <v>27257</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G148" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -5061,25 +5062,25 @@
         <v>27471</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G149" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H149" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -5087,25 +5088,25 @@
         <v>27474</v>
       </c>
       <c r="B150" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" t="s">
+        <v>236</v>
+      </c>
+      <c r="E150" t="s">
+        <v>237</v>
+      </c>
+      <c r="F150" t="s">
+        <v>240</v>
+      </c>
+      <c r="G150" t="s">
+        <v>246</v>
+      </c>
+      <c r="H150" t="s">
         <v>181</v>
-      </c>
-      <c r="C150" t="s">
-        <v>30</v>
-      </c>
-      <c r="D150" t="s">
-        <v>237</v>
-      </c>
-      <c r="E150" t="s">
-        <v>238</v>
-      </c>
-      <c r="F150" t="s">
-        <v>241</v>
-      </c>
-      <c r="G150" t="s">
-        <v>247</v>
-      </c>
-      <c r="H150" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -5113,25 +5114,25 @@
         <v>27478</v>
       </c>
       <c r="B151" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E151" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F151" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H151" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -5139,25 +5140,25 @@
         <v>27481</v>
       </c>
       <c r="B152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F152" t="s">
+        <v>243</v>
+      </c>
+      <c r="G152" t="s">
         <v>244</v>
       </c>
-      <c r="G152" t="s">
-        <v>245</v>
-      </c>
       <c r="H152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -5165,25 +5166,25 @@
         <v>27604</v>
       </c>
       <c r="B153" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D153" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E153" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F153" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G153" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -5191,25 +5192,25 @@
         <v>27623</v>
       </c>
       <c r="B154" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E154" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F154" t="s">
+        <v>243</v>
+      </c>
+      <c r="G154" t="s">
         <v>244</v>
       </c>
-      <c r="G154" t="s">
-        <v>245</v>
-      </c>
       <c r="H154" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -5217,25 +5218,25 @@
         <v>27627</v>
       </c>
       <c r="B155" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D155" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E155" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F155" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G155" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H155" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -5243,25 +5244,25 @@
         <v>27628</v>
       </c>
       <c r="B156" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E156" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F156" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G156" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H156" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -5269,25 +5270,25 @@
         <v>27629</v>
       </c>
       <c r="B157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -5295,25 +5296,25 @@
         <v>27630</v>
       </c>
       <c r="B158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D158" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E158" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F158" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G158" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -5321,25 +5322,25 @@
         <v>27653</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D159" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F159" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G159" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5347,25 +5348,25 @@
         <v>27835</v>
       </c>
       <c r="B160" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F160" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G160" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -5373,25 +5374,25 @@
         <v>27864</v>
       </c>
       <c r="B161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E161" t="s">
+        <v>237</v>
+      </c>
+      <c r="F161" t="s">
         <v>238</v>
       </c>
-      <c r="F161" t="s">
-        <v>239</v>
-      </c>
       <c r="G161" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -5399,25 +5400,25 @@
         <v>27865</v>
       </c>
       <c r="B162" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D162" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F162" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G162" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H162" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -5425,25 +5426,25 @@
         <v>27871</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F163" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G163" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H163" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -5451,25 +5452,25 @@
         <v>28065</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D164" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F164" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G164" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H164" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -5477,25 +5478,25 @@
         <v>28074</v>
       </c>
       <c r="B165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D165" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F165" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G165" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -5503,25 +5504,25 @@
         <v>28178</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D166" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E166" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G166" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H166" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -5529,25 +5530,25 @@
         <v>28191</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E167" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F167" t="s">
+        <v>240</v>
+      </c>
+      <c r="G167" t="s">
         <v>241</v>
       </c>
-      <c r="G167" t="s">
-        <v>242</v>
-      </c>
       <c r="H167" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -5555,25 +5556,25 @@
         <v>28192</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D168" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E168" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F168" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -5581,25 +5582,25 @@
         <v>28194</v>
       </c>
       <c r="B169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E169" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F169" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H169" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -5607,25 +5608,25 @@
         <v>28195</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C170" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E170" t="s">
+        <v>237</v>
+      </c>
+      <c r="F170" t="s">
         <v>238</v>
       </c>
-      <c r="F170" t="s">
-        <v>239</v>
-      </c>
       <c r="G170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H170" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -5633,25 +5634,25 @@
         <v>28197</v>
       </c>
       <c r="B171" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D171" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F171" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G171" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H171" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -5659,25 +5660,25 @@
         <v>28212</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D172" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F172" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G172" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -5685,25 +5686,25 @@
         <v>28388</v>
       </c>
       <c r="B173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F173" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H173" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -5711,25 +5712,25 @@
         <v>28391</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F174" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G174" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H174" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -5737,25 +5738,25 @@
         <v>28527</v>
       </c>
       <c r="B175" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D175" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E175" t="s">
+        <v>237</v>
+      </c>
+      <c r="F175" t="s">
         <v>238</v>
       </c>
-      <c r="F175" t="s">
-        <v>239</v>
-      </c>
       <c r="G175" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5763,25 +5764,25 @@
         <v>28535</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F176" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G176" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H176" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -5789,25 +5790,25 @@
         <v>28536</v>
       </c>
       <c r="B177" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C177" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D177" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F177" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G177" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H177" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -5815,25 +5816,25 @@
         <v>28580</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C178" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E178" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F178" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G178" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H178" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -5841,25 +5842,25 @@
         <v>28581</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D179" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E179" t="s">
+        <v>237</v>
+      </c>
+      <c r="F179" t="s">
         <v>238</v>
       </c>
-      <c r="F179" t="s">
-        <v>239</v>
-      </c>
       <c r="G179" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H179" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5867,25 +5868,25 @@
         <v>28586</v>
       </c>
       <c r="B180" t="s">
+        <v>210</v>
+      </c>
+      <c r="C180" t="s">
+        <v>46</v>
+      </c>
+      <c r="D180" t="s">
+        <v>236</v>
+      </c>
+      <c r="E180" t="s">
+        <v>237</v>
+      </c>
+      <c r="F180" t="s">
+        <v>243</v>
+      </c>
+      <c r="G180" t="s">
+        <v>252</v>
+      </c>
+      <c r="H180" t="s">
         <v>211</v>
-      </c>
-      <c r="C180" t="s">
-        <v>47</v>
-      </c>
-      <c r="D180" t="s">
-        <v>237</v>
-      </c>
-      <c r="E180" t="s">
-        <v>238</v>
-      </c>
-      <c r="F180" t="s">
-        <v>244</v>
-      </c>
-      <c r="G180" t="s">
-        <v>253</v>
-      </c>
-      <c r="H180" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -5893,25 +5894,25 @@
         <v>28638</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D181" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E181" t="s">
+        <v>237</v>
+      </c>
+      <c r="F181" t="s">
         <v>238</v>
       </c>
-      <c r="F181" t="s">
-        <v>239</v>
-      </c>
       <c r="G181" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H181" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -5919,25 +5920,25 @@
         <v>28715</v>
       </c>
       <c r="B182" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D182" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E182" t="s">
+        <v>237</v>
+      </c>
+      <c r="F182" t="s">
         <v>238</v>
       </c>
-      <c r="F182" t="s">
-        <v>239</v>
-      </c>
       <c r="G182" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -5945,25 +5946,25 @@
         <v>28716</v>
       </c>
       <c r="B183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C183" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D183" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E183" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F183" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G183" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H183" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -5971,25 +5972,25 @@
         <v>28717</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D184" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E184" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G184" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -5997,25 +5998,25 @@
         <v>28729</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C185" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D185" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E185" t="s">
+        <v>237</v>
+      </c>
+      <c r="F185" t="s">
         <v>238</v>
       </c>
-      <c r="F185" t="s">
-        <v>239</v>
-      </c>
       <c r="G185" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H185" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -6023,25 +6024,25 @@
         <v>28730</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D186" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E186" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H186" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -6049,25 +6050,25 @@
         <v>28731</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E187" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F187" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G187" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H187" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -6075,25 +6076,25 @@
         <v>28732</v>
       </c>
       <c r="B188" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E188" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F188" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G188" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H188" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -6101,25 +6102,25 @@
         <v>28736</v>
       </c>
       <c r="B189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E189" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F189" t="s">
+        <v>243</v>
+      </c>
+      <c r="G189" t="s">
         <v>244</v>
       </c>
-      <c r="G189" t="s">
-        <v>245</v>
-      </c>
       <c r="H189" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -6127,25 +6128,25 @@
         <v>28740</v>
       </c>
       <c r="B190" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C190" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D190" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E190" t="s">
+        <v>237</v>
+      </c>
+      <c r="F190" t="s">
         <v>238</v>
       </c>
-      <c r="F190" t="s">
-        <v>239</v>
-      </c>
       <c r="G190" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H190" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -6153,25 +6154,25 @@
         <v>28890</v>
       </c>
       <c r="B191" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D191" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H191" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6179,25 +6180,25 @@
         <v>28892</v>
       </c>
       <c r="B192" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D192" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E192" t="s">
+        <v>237</v>
+      </c>
+      <c r="F192" t="s">
         <v>238</v>
       </c>
-      <c r="F192" t="s">
-        <v>239</v>
-      </c>
       <c r="G192" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H192" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -6205,25 +6206,25 @@
         <v>28903</v>
       </c>
       <c r="B193" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F193" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G193" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H193" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -6231,25 +6232,25 @@
         <v>28904</v>
       </c>
       <c r="B194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D194" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E194" t="s">
+        <v>237</v>
+      </c>
+      <c r="F194" t="s">
         <v>238</v>
       </c>
-      <c r="F194" t="s">
-        <v>239</v>
-      </c>
       <c r="G194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H194" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -6257,25 +6258,25 @@
         <v>28907</v>
       </c>
       <c r="B195" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D195" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E195" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F195" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G195" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H195" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6283,25 +6284,25 @@
         <v>28909</v>
       </c>
       <c r="B196" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D196" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E196" t="s">
+        <v>237</v>
+      </c>
+      <c r="F196" t="s">
         <v>238</v>
       </c>
-      <c r="F196" t="s">
-        <v>239</v>
-      </c>
       <c r="G196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H196" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6309,25 +6310,25 @@
         <v>28910</v>
       </c>
       <c r="B197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D197" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E197" t="s">
+        <v>237</v>
+      </c>
+      <c r="F197" t="s">
         <v>238</v>
       </c>
-      <c r="F197" t="s">
-        <v>239</v>
-      </c>
       <c r="G197" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H197" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6335,25 +6336,25 @@
         <v>28929</v>
       </c>
       <c r="B198" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D198" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F198" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G198" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H198" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6361,25 +6362,25 @@
         <v>29010</v>
       </c>
       <c r="B199" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E199" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G199" t="s">
         <v>241</v>
       </c>
-      <c r="G199" t="s">
-        <v>242</v>
-      </c>
       <c r="H199" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -6387,25 +6388,25 @@
         <v>29011</v>
       </c>
       <c r="B200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D200" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F200" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G200" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H200" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -6413,25 +6414,25 @@
         <v>29020</v>
       </c>
       <c r="B201" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D201" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E201" t="s">
+        <v>237</v>
+      </c>
+      <c r="F201" t="s">
         <v>238</v>
       </c>
-      <c r="F201" t="s">
-        <v>239</v>
-      </c>
       <c r="G201" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H201" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -6439,25 +6440,25 @@
         <v>29021</v>
       </c>
       <c r="B202" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D202" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E202" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F202" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G202" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H202" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -6465,25 +6466,25 @@
         <v>29022</v>
       </c>
       <c r="B203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D203" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E203" t="s">
+        <v>237</v>
+      </c>
+      <c r="F203" t="s">
         <v>238</v>
       </c>
-      <c r="F203" t="s">
-        <v>239</v>
-      </c>
       <c r="G203" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H203" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -6491,25 +6492,25 @@
         <v>29024</v>
       </c>
       <c r="B204" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D204" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E204" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F204" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G204" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H204" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -6517,25 +6518,25 @@
         <v>62566</v>
       </c>
       <c r="B205" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E205" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F205" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G205" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
